--- a/public/excel/SmProject.xlsx
+++ b/public/excel/SmProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\mgh\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1011282-3D70-4ADA-8351-E1484A6186A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AC0B3-1E0F-4292-9F43-68D8F1E0551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2DD46A-D58C-40B7-BE43-9D638ECD3896}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="431">
   <si>
     <t>요청일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>운영계획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1728,6 +1724,694 @@
   </si>
   <si>
     <t>2023.09.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDPR 상세현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 199
+EDPR 상세현황
+로딩이 2분넘게 걸리는데 시간 단축할 수 있는 지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+CM부서인원 ( WP_N 권한 사용자 ) 의 경우 근무상태 중 휴일, 휴가를 제외한 출근, 퇴근 상태를 '-' 로 표현 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/04 조봉철 수석 작업 진행 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약관리 &gt; 운영관리 &gt; 운영계획서작성 시
+실지분율 입력 란에 소수점을 입력했을 때 반영이 안 되는 현상이 발생한다고 하여 문의드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내출근부관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+월간근무계획표를 작성하지 않는 인원들의 경우 근무상태가 "지각" 으로 표시되고 있음.
+해당 권한 사용자들에 한해서 해당 메뉴에서 출퇴근 고나련 근무상태만 " - " 으로 표시되도록 수정
+- 해당 권한 인원이 보기에 " - " 로 표시되면 되므로, 해당 메뉴 JSP 화면단에서 처리해주기로 함.
+CM부서인원 ( WP_N 권한 사용자 ) 의 경우 근무상태 중 휴일, 휴가를 제외한 출근, 퇴근 상태를 '-' 로 표현 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정은
+민경현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 245
+협업관리 &gt; 일정관리
+제목 앞에 일정 시작시간이 자동 입력되도록 수정했으나, 
+다시 자동 기능 삭제 요청….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출수금관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 346
+기성청구내역 메뉴에서 기성청구를 등록하였으나, 매출수금관리에서 조회가 되지 않는 문제
+- 임실 호국원 현장 ( 업체: 국가보훈처 국립임실호국원 )
+- 2023.03 3.5억 기성청구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업단 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM관리 &gt; 사업단관리 &gt; 사업단 개요
+1. 상세 화면 하단 조직도 내 클릭 이벤트 없도록 수정
+CM관리 &gt; 인력관리 &gt; 인력조회
+2. 상세팝업 하단 경력증명서 숨김처리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM관리 &gt; 사업단관리 &gt; 사업단 개요
+프로젝트 자료실 버튼 추가 ( 우측 상단 "주간업무보고" 버튼 옆 )
+팝업으로 프로젝트자료실 ( CM관리 &gt; 사업단관리 &gt; 프로젝트자료실 ) 띄우고 해당 프로젝트만 목록에 표시되도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계매출계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계관리 &gt; 설계계약관리 &gt; 설계매출계획
+설계관리 &gt; 설계계약관리 &gt; 설계외주계약관리
+1. 조회조건 회사분류 추가 ( 설계계약관리 메뉴 참조 )
+2. 목록 그리드 내 회사분류 추가 + 엑셀 에도 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+정림건축 명칭 변경 &gt; 정림씨엠
+1. 전도금/착수금 &gt; 신청/정산: 하단 신청내역
+- "추가" 때 정산업체 선택 셀렉트 박스의 "정림건축" 변경 ( SELECT * FROM ORGANIZATION WHERE ENTPRS_CD = 'JUNGLIM' )
+2. CM계약관리
+- 공동참여사 등록 "당사" -&gt; "정림씨엠"
+- 코드도 같이 변경 [ SC_CORP_NO : 2319 -&gt; 46711 ]
+- 프로젝트 &gt; 전도금/착수금 &gt; 승인: 신청승인 탭에서 "전도금템플릿 내려받기" 시 SC_CORP_NO 값 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+프로젝트 &gt; 전도금/착수금 &gt; 승인 : 정산승인 탭
+"전도금템플릿 내려받기" 템플릿에 비용구분 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM업무일지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 265
+1. 시공관리 &gt; CM업무일지 
+- 업무일지 메뉴 3개를 써야하는데, 각각 작성할 수 있는 지 확인
+2. 업무일지 메뉴 및 양식을 모두 바꿔야 함.
+- 강여울 선임에게 수정사항 확인 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 752
+LH부산명지, LH평택고덕 현장 변경계약 체결보고 결재완료 되었으나 시스템상 결재 취소로 나옵니다.
+오류사항 수정 요청드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 268
+N프로젝트 공문 양식 3개
+- 양식은 강여울 선임에게 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 270
+문서작성 시 받는사람 등록 팝업창에 “확인/닫기” 버튼 누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서신문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 271
+1. 문서 작성시 보이는 SMS 버튼 숨김
+       (부산센텀, asml 모두 동일하게 숨김해주세요.)
+2. 발송 후 문서 양식에서 문서번호가 Draft로 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP 현장 수정 및 개발.ppt 278-1
+CM 업무일지
+1. 양식에 일련번호 입력 후 저장할 수 있는 저장 버튼 필요
+2. 공사명은 ‘해 성 디 에 스 사 무 동 증 축 공 사‘ 로 변경
+3. 공종 및 세후공정 -&gt; ‘공종 및 세부공정＇
+4. 분야별 감리원 작업내용에 텍스트를 길게 입력하면  Report에 텍스트가 나오지 않음.
+5. 설정 탭에서 구분 값 중 ‘책임’ 값을 변경할 수 있도록 활성화 필요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 278-2
+CM 업무일지
+1. Reprot 탭에서 ‘인쇄’버튼
+- 인쇄 창에서 양식에 스크롤이 보임, 스크롤이 아니라 위 전기공사와 같이 입력하는 대로 높이가 텍스트에 맞춰지도록 수정
+2. Report 탭에서 ‘PDF 저장’ 버튼
+- 총괄관리책임자와 감리원 칸 넓히기
+- 양식에 스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인허가 스케쥴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 280
+1. 공정관리 &gt; 인허가관리 &gt; 인허가 스케쥴
+- 새로 행 추가 후 저장하면 에러창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 280
+2. 권한그룹설정
+- DOC_MGR 권한을 줘도 문서를 삭제할 수 없음
+ (ID : won-young.seo@wsp.com)
+- 다른 현장처럼 DOC_MGR 권한을 주면 문서 삭제 및 전체 문서가 보이도록 수정해 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 281
+쿠팡 남대전
+- 메인화면 서신문서에 2건이 있는데, 상세 메뉴에서는 안읽은 문서가 없음.
+- 사용자 금경호(v-kykeum@coupang.com)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 
+Time작성 근무기록현황
+이윤형 8월 24일 퇴근기록 안보임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 190 
+경영관리 &gt; 비용관리 &gt; 지출결의서승인
+1. 지출결의서 전표승인오류 - 지출결의서 승인상태 오류
+지출결의서 결재되지 않았는데 지출결의서승인 메뉴의 승인상태에는 결재완료로 뜨는 문제.
+- DRAFT-056609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 132
+4. 목양 모든 문서에 있는 글씨체 전부 굴림체로 변경
+- 지출결의서, 휴가 양식 등 소스 내 html 파일로 존재하는 양식들 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+임시실행예산카드 [초기화] 안되는 부분이 있어 재요청
+① [초기화] 클릭시 아래의 값이 자동입력 될 수 있도록 요청 드립니다.
+1. PL(담당자) : 남보라
+2. 주용도 : 해당없음
+3. 연면적 : 1
+4. 공사비 : 1
+5. 민간/공공 : 민간
+6. 계약여부 : 계약
+② 위에 해당하지 않는 (자동세팅값이 없는) 부분은 데이터삭제(공란)으로 처리 부탁 드립니다.
+8. 프로젝트부서 : 삭제(공란)
+7. 계약금액 : 0
+8. DP : 해당없음
+9. 참여인원 : 모두삭제(공란)
+10. 공정 (업무기간/착수일자/계약일자/종료일자) : 삭제(공란)
+11. 건축주정보 (신규발주처/발주처구분/발주처/관계/비고) : 삭제(공란)
+12. 발주정보 (정보취득/최초취득/사업방식/토지소유/OR명확성/분양/발주구분/경쟁업체현황) : 삭제(공란)
+13 계약서첨부파일/설계서첨부파일/W드라이브 : 삭제(공란)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공진도반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 282
+시공진도반영 메뉴
+- 실적 반영하면 아래 오류창이 나온다고 함.
+- 실 현장에 있는 항목은 반영하면 안돼서 test 현장에서 시도했는데 정상적으로 반영되어 오류를 확인할 수 없음. 실행 시간대 로그 확인해서 수정할 수 있는지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP 현장 수정 및 개발.ppt 283
+재기안 시, 기존 결재선 반복되어 나옴
+문서번호 : LLSZ-CC8-COR-FC-TPH-GC-0012 (반려)
+테스트시 문제가 없습니다..데이터 확인부탁드립니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP 현장 수정 및 개발.ppt 284
+차단 또는 프로젝트에서 제외 된 사용자를  
+       저장된 승인선으로 받는사람 설정이 가능함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 288
+수정 후 저장 버튼을 눌러도 수정이 안됨.
+예시 ) Revision 3 을 2로 변경하여 저장 버튼 클릭시 반영안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연봉관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 757
+연봉관리 메뉴 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 759
+1. PMS 출근부
+출근, 퇴근 지문이 반영이 되지 않아 오류 확인 요청드립니다. (근태 프로그램에 지문 모두 있으나 PMS 상에서 자료가 넘어오지 않음)
+2. PMS 탄력근로사전신청
+지문이 없어서 9/25(월) 탄력근로사전승인 처리가 되지 않은것으로 보입니다.
+오류 건 확인 후 연락 부탁드립니다. 감사합니다.
+경영지원팀 김지수 대리 02-6925-2724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 289
+문서보기하면 빈문서
+- UGPS-SKEE-VP-23-0544
+- UGPS-SKEE-VP-23-0545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계변경도면/도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP 현장 수정 및 개발.ppt 290
+자료실 모듈 : 수정 버튼 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.26</t>
+  </si>
+  <si>
+    <t>사업계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 292
+일반관리 &gt; 사업계획 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어도비 사용중인 페이지, 사용 안하기로 했음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment Application  / Payment Tracking Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 295
+위치 : 문서관리 &gt; Payment Application  / Payment Tracking Log
+문서와 Payment Tracking Log 리스트에서 6건 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+설계 &gt; 설계관리 &gt; 프로젝트정보관리: 실행예산총괄
+1. 실행예산서 기준비율이 수주영업 (GS040)인 경우 별도업무도 외주비(표준)에 산입되고 별도(외주비)는 삭제(0) 으로 표시되는것으로 수정 했었으나 현재 결재중인 프로젝트의 경우 별도(외주비)에 표기되어 있음.
+- ex) 논현동 역세권 활성화 오피스 설계사 선정 공모(수주) / 14315-01-A00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무연락 다인 쪽지 755 관련
+관련링크 조회시 결재완료 문서만 조회되도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 301
+1. UGPS-SKEE-VP-23-0543 / 문서보기하면 빈문서
+2. UGPS-SKEE-VP-23-0527 / 검토등급 누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 306
+사진모듈 오류
+최초 사진 저장 후 목록에 추가된 상태에서 사진 파일 미리보기가 없음
+메뉴를 다시 클릭해야 미리보기 화면이 표시됨
+오류가 나타나는 현장
+-&gt; 필리핀, ASML, 카카오데이터센터,베트남ATV,루원복합청사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀, ASML, 카카오 이번 주 반영 후 나머지 텀을 두고(다음 주) 반영 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 307
+사진모듈 오류
+폴더 업로드로 파일 추가 한 경우 미리보기 이미지를 정상 생성하지 않음
+(폴더 업로드가 아닌 파일 선택 업로드 시에도 오작동 발생하는 경우 있음)
+미리보기 이미지를 클릭해도 사진 뷰어가 동작하지 않음
+오류가 나타나는 현장
+-&gt; 필리핀, ASML, 카카오데이터센터,베트남ATV,루원복합청사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 308
+사진모듈 오류
+-미리보기 클릭 후 메뉴 클릭 시, 미리보기 클릭 안됨
+오류가 나타나는 현장
+-&gt; 필리핀, 제주유아, LG화학, 레고랜드, ASML, 싱가포르 CR108, 카카오데이터센터, 베트남 ATV, 루원복합청사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직분류체계(OBS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 310
+1. 사용자 추가하려고 하면 중복코드 문구 팝업
+- 현장명 : 시화 MTV 주상-2 주상복합 신축공사 감리용역
+- 사용자 : 남산희 (dpnsh)
+2. 행정/계약관리 &gt; 감리원업무일지 
+- 책임건설사업관리자 중복행 삭제 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획대비실행현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 153
+계획대비실행현황 오류 확인
+AMS : 설계본부 – 프로젝트관리 – 계획대비실행현황 – 프로젝트 A2020084 클릭
+- A2020084 인천 작전동 286-2번지 공동주택 신축공사
+- 계획금액만 노출되고 실행에 대한 금액은 노출되지 않으며, 주식회사 백아이엔씨 4번 다음 5번이 양식이 정상적으로 보이지 않고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 318
+UGPS-SKEE-VP-23-0578
+문서보기하면 빈문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서별손익현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 539
+종합상황실 매출현황의 설계 매출액이 부서별 손익현황의 매출 합계와 다릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+설계 &gt; 설계관리 &gt; 프로젝트정보관리: 인건비 탭
+1. 일부 인원의 실행 값이 아예 없거나 보이지 않는 문제.
+- Time작성 승인처리 되었음.
+- 프로젝트 코드 14314-01-A00 사천 골프존카운티 골프텔(수주)
+- 오성희 팀장, 권재은 팀장, 김석주 팀원
+2.  전체적으로 승인된 인건비 값이 제대로 올라오고 있는지, 그렇지 않다면 어떤 원인으로 인건비 실행 값이 보이지 않는 것인지 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 지금 상태로는 값이 정상적으로 올라오고 있으니 완료 상태로 하고 혹시 데이터 값이 안맞던가 같은 문제가 발생하면 문의 주기로 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+휴직원 일반휴직, 기타휴직은 구체적인 사유를 입력해야 하는데.. 제가 그 부분을 생각하지 못하고 작업한 것 같은데요,
+휴직원 양식에 비고란을 추가할 수 있을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발서버에 반영완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 327
+위 화면처럼 메인화면 변경작업
+- 디자인 파일은 강여울 선임에게 요청
+- 각 사무, 제조, 폐수는 공정표에서 WBS 2 Level에 입력되는 거에 해당
+1. 사업정보 분리의 경우 필리핀 사이트 참조하여 세팅
+   - 시스템관리 &gt; 사업구성 &gt; 사업정보관리
+2. 공정개정이력 갱신 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 328
+전자결재 승인 알림 중 Workflow/승인 알림체크 시 발송되는 메일에서 Workflow Status Change Notification 메일은 발송되지 않도록 처리 
+(승인자들 모두 승인을 완료하면 상태가 변경되었다고 메일을 발송 함.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+실행예산서 문서 내 외주비의 세부예산서 폰트사이즈가 크롬, 엣지 에서 작게 나오는 현상. ( 웨일 브라우저에서는 크가 보임 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 334
+열람자(Read) 는 뜨지 않도록 수정 요청
+- 열람자는 검토자가아니기 때문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP 현장 수정 및 개발.ppt 335
+결재선 지정 후, 다시 결재선지정 버튼을 누르면 승인 순서가 달라집니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 336
+수신자(To/CC) 저장 후 다시 수신자 설정 팝업창을 열면 인원이 변경됩니다.
+아래 동영상 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 337
+메인페이지 공정 분석 대비율 확인 부탁드립니다
+ID : v-hyson@coupang.com
+PW: tkddkpmisV2@okta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 자료 &gt; 자료관리 &gt; 디자인DB 한 페이지당 노출 건을 현재 500개에서 30개로 줄여주세요 (섬네일 용량에 따른 속도 문제 개선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결근계 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 결근계 양식 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 현재 이용자가 디자인DB 자료 신청 후 관리자가 승인 처리하면,
+신청자는 해당 프로젝트의 상태아이콘이 접근가능으로 바뀌고, 프로젝트명 더블클릭을 통해 이관폴더를 열람할 수 있습니다.
+이러한 접근가능 기간은 승인일로부터 7일입니다. (ex. 1일에 승인완료시 7일까지 열람가능, 8일부터는 접근불가)
+현재 EPSS상의 기간이 8일로 설정되어 있는 것 같다고 하셔서 이 부분 7일로 변경 요청 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time작성현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. Time작성현황 출력 팝업의 내용들 폰트사이즈가 작아진 문제
+- 크롬브라우저 최신 버전에서 문제 발생
+- 엣지 브라우저에서도 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차사용촉진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 766
+1. 연차사용 촉진 양식 날짜 변경
+- 변경 일자 캡쳐 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 344
+1. 알림 메일 내용이 쿠팡으로 뜨고 클릭 후 쿠팡페이지로 이동됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 반차 승인이 되었지만 월간근무계획표엔 표시가 이상하게 되어있음.
+- 김하얀 수석
+- 10/27 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 347
+1. 각 항목 별 세로 합계를 확인할 수 있는 행을 첫째줄에 고정​
+- 사업단관리&gt;계약관리 : 도급금액, 당사금액, 기성​
+- 사업단관리&gt;매출관리 : 도급금액, 당사금액, 기성청구금액, ​수금, 미수금, 잔여기성금액​
+2. 전체 합계 확인을 위해 페이징 삭제​
+3. 설계관리 &gt; 업무일지 등록현황 메뉴 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 350
+1. To/CC 지정 할 때 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 351
+1. 알림메일 Open the document 클릭 시 레고랜드로 이동되어지고 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,7 +2606,14 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{3549437A-EE41-4F04-A778-D0863A94FF59}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2320,11 +3011,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I119"/>
+  <dimension ref="B1:I183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2377,64 +3068,62 @@
     </row>
     <row r="3" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2442,21 +3131,21 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="135" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2464,23 +3153,23 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2488,21 +3177,21 @@
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2510,44 +3199,44 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -2556,173 +3245,173 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2730,23 +3419,23 @@
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,149 +3443,149 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="324" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2904,46 +3593,46 @@
         <v>9</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2952,20 +3641,20 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
@@ -2974,21 +3663,21 @@
         <v>9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2996,21 +3685,21 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
@@ -3018,20 +3707,20 @@
         <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -3040,21 +3729,21 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
@@ -3062,21 +3751,21 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
@@ -3084,20 +3773,20 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -3106,21 +3795,21 @@
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3128,22 +3817,22 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
@@ -3152,23 +3841,23 @@
         <v>9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3176,23 +3865,23 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3200,20 +3889,20 @@
         <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -3222,20 +3911,20 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3244,21 +3933,21 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3266,22 +3955,22 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3290,21 +3979,21 @@
         <v>9</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
@@ -3312,22 +4001,22 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -3336,153 +4025,153 @@
         <v>9</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3490,229 +4179,229 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I53" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="202.5" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="162" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3720,20 +4409,20 @@
         <v>9</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -3742,21 +4431,21 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
       </c>
@@ -3764,21 +4453,21 @@
         <v>9</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3786,47 +4475,47 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
@@ -3834,21 +4523,21 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
@@ -3856,23 +4545,23 @@
         <v>9</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
@@ -3880,22 +4569,22 @@
         <v>9</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
@@ -3904,22 +4593,22 @@
         <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -3928,20 +4617,20 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>308</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -3950,233 +4639,233 @@
         <v>9</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="2:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="B75" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="2:9" ht="81" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
     </row>
     <row r="78" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" s="3"/>
-      <c r="I78" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="E79" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,20 +4873,22 @@
         <v>9</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="I79" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>8</v>
@@ -4206,20 +4897,20 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
@@ -4228,20 +4919,20 @@
         <v>9</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>8</v>
@@ -4250,245 +4941,253 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="B87" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B90" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="D92" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="3" t="s">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="B91" s="3" t="s">
+      <c r="C93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B93" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
       </c>
@@ -4496,20 +5195,20 @@
         <v>9</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -4518,66 +5217,66 @@
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B96" s="3" t="s">
+      <c r="D96" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C97" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="D97" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -4586,20 +5285,20 @@
         <v>9</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -4608,86 +5307,88 @@
         <v>9</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="99" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F99" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99" s="3"/>
-      <c r="I99" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>221</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -4696,22 +5397,22 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102" s="3"/>
-      <c r="I102" s="4" t="s">
-        <v>272</v>
+      <c r="I102" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>9</v>
@@ -4720,114 +5421,114 @@
         <v>9</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="4"/>
     </row>
     <row r="105" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B107" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="B106" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B107" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="G107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>8</v>
@@ -4836,84 +5537,88 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="B110" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="B110" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B111" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="E111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>46</v>
+      <c r="G111" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>8</v>
@@ -4922,20 +5627,20 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>8</v>
@@ -4944,46 +5649,40 @@
         <v>9</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113" s="3"/>
-      <c r="I113" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>294</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C114" s="4"/>
       <c r="D114" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>46</v>
+      <c r="G114" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="H114" s="3"/>
-      <c r="I114" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="I114" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="162" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>8</v>
@@ -4992,20 +5691,20 @@
         <v>9</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>8</v>
@@ -5014,42 +5713,42 @@
         <v>9</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>8</v>
@@ -5058,50 +5757,1494 @@
         <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>304</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B121" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B126" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B127" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B129" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B130" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B134" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B136" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B138" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B139" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B140" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="4"/>
+    </row>
+    <row r="141" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B141" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B142" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="4"/>
+    </row>
+    <row r="144" spans="2:9" ht="256.5" x14ac:dyDescent="0.3">
+      <c r="B144" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="4"/>
+    </row>
+    <row r="145" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B145" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="4"/>
+    </row>
+    <row r="146" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B146" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B147" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B148" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B149" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="4"/>
+    </row>
+    <row r="150" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="B150" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H150" s="3"/>
+      <c r="I150" s="4"/>
+    </row>
+    <row r="151" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B151" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H151" s="3"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B152" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H152" s="3"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B153" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H153" s="3"/>
+      <c r="I153" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B154" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B155" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B156" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156" s="3"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B157" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B158" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="B159" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B161" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B162" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B163" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H163" s="3"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B164" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B165" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H165" s="3"/>
+      <c r="I165" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B166" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166" s="3"/>
+      <c r="I166" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="135" x14ac:dyDescent="0.3">
+      <c r="B167" s="3"/>
+      <c r="C167" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B168" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B169" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B170" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" s="3"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B171" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B172" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B173" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H173" s="3"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B174" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H177" s="3"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H178" s="3"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B179" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H179" s="3"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B180" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H180" s="3"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B181" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H181" s="3"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B182" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H182" s="3"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B183" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H183" s="3"/>
+      <c r="I183" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D119">
+  <conditionalFormatting sqref="D3:D183">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F3="완료"</formula>
+      <formula>$I3="완료"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5110,15 +7253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f90d0c5d-20a9-4884-94db-9bddc00c942c">
@@ -5127,6 +7261,15 @@
     <TaxCatchAll xmlns="a4541339-71e0-41a7-b73a-762ae2b9df2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5353,14 +7496,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A60E181-A5C4-4DF8-9BE6-E7C89A94002D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5373,6 +7508,14 @@
     <ds:schemaRef ds:uri="f90d0c5d-20a9-4884-94db-9bddc00c942c"/>
     <ds:schemaRef ds:uri="a4541339-71e0-41a7-b73a-762ae2b9df2d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/excel/SmProject.xlsx
+++ b/public/excel/SmProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\mgh\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AC0B3-1E0F-4292-9F43-68D8F1E0551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3DF46-0837-4575-9D25-1C3448156346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2DD46A-D58C-40B7-BE43-9D638ECD3896}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="541">
   <si>
     <t>요청일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,10 +1714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2번 민경현 주임이 확인 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. FBS 문서종류를 '선택'으로 변경하여 양식 안보이도록 처리완료-강여울
 2. 개인정보에 경력사항 숨김 처리 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1768,11 +1764,6 @@
 해당 권한 사용자들에 한해서 해당 메뉴에서 출퇴근 고나련 근무상태만 " - " 으로 표시되도록 수정
 - 해당 권한 인원이 보기에 " - " 로 표시되면 되므로, 해당 메뉴 JSP 화면단에서 처리해주기로 함.
 CM부서인원 ( WP_N 권한 사용자 ) 의 경우 근무상태 중 휴일, 휴가를 제외한 출근, 퇴근 상태를 '-' 로 표현 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김정은
-민경현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2412,6 +2403,599 @@
   <si>
     <t>ASP 현장 수정 및 개발.ppt 351
 1. 알림메일 Open the document 클릭 시 레고랜드로 이동되어지고 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동문 부본부장님께서 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 313
+Inspect 문서 중복번호 부여된 이유 파악안됨
+- 문서관리 &gt; 문서관리 &gt; Payment Application
+- LLSZ-ETF-PAP-RID-RES-ETF-0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스코 팀장님까지 동원해서 원인을 찾아 보았지만 찾을 수 없었음. ( 11/9 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기성/매출관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+01. 기성/매출관리 - 매출현황, 수금현황
+- 정림으로부터 제공받음 JMS View 를 조회해서 보여주고 있는 상태.
+- 정림 JMS 담당자와 협의해서 ppt 내용 대로 데이터 구성이 되는지 여부 확인 후 작업진행
+- 담당자로부터 데이터 or View 를 이번 달 내로 전달 받게 되면 11월 말까지 완료 목표로 작업 진행 예정
+02. 종료보고서 결재 화면 데이터 오류
+- 최형규 과장님에게서 양식 전달 받으면 작업진행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인 파악이 안됨. 신정섭 수석이 월간근무계획을 수정해서 파악이 어려움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정림 슬라이드 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+  </si>
+  <si>
+    <t>쪽지 769
+업무관리 - 근태관리 - 연차사용촉진에서 미사용연차 일수 오류 건 수정 요청드립니다.
+- 성함 : 백승협
+- 실제 잔여일수 : 5일
+- 연차사용촉진 미사용연차 오류 : 6일
+연차사용촉진 미사용연차 일수 5일로 수정 요청드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 휴가신청 했으나 월간근무계획표 데이터는 근무로 표시되어 있음.
+- 서호직 수석 / 20192174
+- 휴가기간 : 10/27 ~ 11/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 143
+설계관리 중  PJ.NO 2023-01 재외동포교육문화센터 건립사업 건축설계용역 프로젝트가 2건이 등록되어 있기에 1건 삭제 요청드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 출근부 출근 상태 확인
+- 김하은 20192116 / 11/13
+- 오전 반차 사용했으나 지각 처리됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/06 신정섭 이 보낸 이메일 관련해서 다시 고민해 달라고 함
+12월 중으로 해당 데이터 처리 가능한 기능 개발 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적 및 종료보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 결재완료된 운영계획서가 없어도 실적 및 종료 보고서 작성이 가능하도록.
+- 0차수 미승인에 한해서 가능하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인 안된 운영계획서는 FILE_SEQ 가 생성 안되어 있어서 전자결재 문서 작성시 기본 템플릿 문서가 생성되버리는 문제가 있어 더 확인 중 ( 일정이 미뤄짐 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 디자인유 에서 PL의 폴더 접근 권한이 상시 접근 가능 상태인지 확인.
+- PL 김천행
+- 건국대 2차 민자기숙사 에듀21_설계 / 건국대 기숙사_감리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철수투입관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 계약연장 이후 변경된 '계약종료일'이 철수투입관리 메뉴에 반영되지 않는 문제
+- 김윤섭 / 03495
+- 인사관리 &gt; 인사관리 &gt; 총괄인사관리 에 표기된 계약종료일과
+- 인력관리 &gt; 철수투입관리 &gt; 철수투입관리 : 전기 탭에 표기된 계약종료일이 다르게 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 현장이 연장되어 수당 지급 시 교통비/안전수당이 미지급 되는 문제. ( 간혹 발생되는 문제 )
+- 인사관리 &gt; 수당관리 &gt; 지급관리
+- 성명 : 남윤경 / 지급일 : 2023.10.25
+- 지금 현장수당만 조회되는데 교통비, 안전수당도 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급관리 메뉴에서 데이터생성 시점에서 해당 사용자의 교통비, 안전수당 결재가 완료가 안되었거나 아니면 신청 자체가 없었거나 해서 생긴문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근부(관리용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 관리자가 휴가처리 할 수 있는 버튼 추가 ( 출퇴근 수동입력 버튼 옆에 )
+- "출퇴근 수동입력" 버튼 눌렀을 때 처럼 팝업을 띄워 정보 입력 및 선택 후 휴가처리 ( COMMUTE_MNG 에 해당일자 휴가 데이터 추가 )
+   ㄴ 구분값, 누가, 언제 작성하였는지 저장
+- 선택된 휴가 종류 ( 연차(8), 반차(4), 반반차(2) ) 에 따라 해당일자 "Time작성" 데이터 생성 ( 공통 업무였나? )
+- Time작성 마감되어있으면 저장 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발서버 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 휴직원/복지원/난임치료 현황 페이지 개발
+- 퇴직자현황 참조
+- 검색 기능
+- 상세(문서)보기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+월간근무계획표
+휴직원, 복직원, 난임치료 월간 근무계획표 연계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 월간근무계획 표시 및 Time작성, 출근부 처리 문제
+- 개발서버 적용 및 담당자 테스트 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가계 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 휴가 구분에 대한 일 수가 고정되어 있어서 년도가 바뀌는 일자에 분리 신청 할 수가 없는 상황.
+- 공통업무 &gt; 근태관리 &gt; 휴가계 신청
+- 년도가 바뀌는 일자에 걸쳐있으면 신청이안됨.
+- 구분별 일수가 정해져 있어 기간이 해당 일수 만큼 고정으로 바뀜.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출퇴근조회현황2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 출퇴근조회현황2 10월 조회시 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 휴일이 휴가로 표시되고 있다. 별도 표시가 되길 원한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계계약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP 현장 수정 및 개발.ppt 383
+계약관리 &gt; 하위메뉴
+1) 계약내용 탭에서 입력한 계약금액을 상단에 표시
+2) 계약이력 탭
+ - 계약금액의 합계가 상단에 표시되도록 연결되어 있는 걸 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쪽지 157
+CM본부 신규 입사자 김택진사장님, 김현우상무님
+업무일지 승인을 위해 본부장에 추가해두었으나 
+승인 버튼이 활성화 되지 않아 문의드립니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 매출 및 수금현황 표시 오류
+- 계약관리 &gt; 기성관리 &gt; 기성/매출관리
+- CM2227 / 보령시 가족센터 건립사업 건설사업관리용역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 기타탭 수정
+- 인사관리 &gt; 인사관리 &gt; 총괄인사관리
+- 프로젝트 &gt; 프로젝트현황 &gt; 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-0941 와 같이 반영할 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 전도금템플릿 내려받기 시 이상 데이터 같이 출력되는 문제.
+- 프로젝트 &gt; 전도금/착수금 &gt; 승인
+- 필터 설정
+   비용구분 : 전도금
+   증빙구분 : 개인카드, 현금영수증, 간이영수증, 전자세금계산서(불공)
+   승인여부 : 승인
+-ex) 안성 성은지구 같은 경우에, PMSS상에는 5건이 목록에 뜨지만 엑셀 템플릿은 9건이 나오게 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 양식 비고 들여쓰기 위치 다른 항목과 같이 정렬되도록 수정.
+2. 휴직원/복직원/난임치료 현황 목록 부서, 직위, 비고 항목 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이메일
+1. 프로젝트정보관리 실행예산총괄에서 0 ~ 2 회차 조회가 가능한데 예산 추출 메뉴에서 '전체' 선택 후 '외주비(예산)' 엑셀 다운로드 시 2회차만 출력되어 나오는 문제
+- 14014-02-A00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출결의서 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전자전표 가져오기 버튼 조회오류 확인
+- 재무관리 &gt; 비용관리 &gt; 지출결의서승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 엑셀 내려받기 에 지역명, 상세주소 추가
+- 자료 &gt; 자료관리 &gt; 프로젝트이관관리
+- 상세 내용 중 대지위치 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP PPT 392
+1. Today 부분에 날짜를 선택하고 D-day 계산해서 표시해 줄 수 있는 기능 추가
+- 사용자별 저장
+- D-day 30, 60 일 때 글자색 빨간색으로 표시
+- 배경색 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 총괄인사관리를 포함한 기타탭 추가 되었던 메뉴의 기타탭에 삭제 버튼이 없음.
+- 인사관리 &gt; 인사관리 &gt; 총괄인사관리
+- 백종인 본부장 / jongin.baek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 페이지 오류 데이터 확인.
+- 인사관리 &gt; 수당관리 &gt; 지급관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 연차 사이에 선태 근로가 포함된 오류
+- 25718 / 정수영
+- 12/6 15:00 ~ 19:00 반차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 비밀번호 초기화 안내 Password Reset Notification 메일 하단의 수신자 내용 표시되지 않는 문제
+2. 문서 수신 알림 Document Inbox Notification 메일 작성일 표시 되지 않는 문제
+- 위 두 경우 모두 이벤트 문제가 의심됨. 디비 저장이 되기 전에 메일 보내기가 된다던지 하는 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강여울 선임 이메일 수신 / 업무연락 쪽지
+1. 연차 신청과 전자결재 문서 연결 오류
+- 직원명 : 김성재
+경영관리 – 인사관리 – 연월차휴가문서함에서 검색을 하면
+11월 9일 반차에 대한 휴가신청 전자결재 문서가 존재합니다.
+하지만, 연월차휴가관리(개인)에서 11월 9일 반차 입력된 데이터와 매칭된 문서를 열면, 12월 8일 신청한 반차 문서와 연결이 됩니다.
+신기하게도 12월 8일 반차 데이터는 “작성중”이라고 되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 단체휴무일 관리 탭에 자체공휴일 등록 했는데 월간근무계획표 생성시 반영 안됨.
+- 월간근무계획표 + 휴가 테이블 등록 로직 확인
+- 휴일관리 메뉴 기능 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간근무계획표 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 월간근무계획표 표시 이상
+- 경영 &gt; 근태&amp;공문관리 &gt; 월간근무계획표 수정
+- 12월 25일 표시 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출/퇴근 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+출퇴근수동입력 결재자를 본인으로 해서 올렸음. 반려처리해주세요.
+- 291068 이상용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 단체연차 24년 10월 4일만 휴가로 반영되지 않는 문제 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결근계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 양식 출력시 좌우 여백 안맞는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기성검사검사원조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 기성검사현황조회 탭 조회 조건 추가
+- 프로젝트 &gt; 프로젝트관리 &gt; 기성검사검사원조회
+- 조회조건으로 담당PM 추가
+- 기성검사원 메뉴 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서별인력투입현황(M/H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 153
+1. EPSS 문의사항
+: 설계관리 &gt; 설계업무관리 &gt; 부서별인력투입현황(M/H) 탭에서
+신규입사자를 조회할 경우, "정규근무시간" 및 "평일업무일지미작성시간"이 8시간으로 반영되는 사유가 어떠한 내용인지 문의드립니다. (첨부파일 참고.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 휴직원 양식에 종료날짜 한 줄 더 표시되는 오류.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 복직하는 달 월간근무계획표 승인 신청 안되는 문제
+- 월간근무계획표는 정상 생성 됨.
+- 승인요청 시 '근로시간을 만족하지 못하였습니다' 발생
+- 000001 / 2025년 4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발서버 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무일지작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 789
+1. 업무일지 페이지 오류
+- 업무관리 &gt; 업무일지관리 &gt; 업무일지작성
+- PQ팀 김은별 과장
+- 2023-12-12 업무일지 오류 때문에 작성 불가
+2. 연찬 신청 불가 오류
+- 업무관리 &gt; 휴가 신청
+- 2024-01-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유션
+1. 단체연차 등록했는데 개인 연차 사용일수 안바뀐 문제 확인
+- 우리쪽 데이터 + 등록 인버스 데이터 까지만 확인하면 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체휴무일 AT_HOLIIN 인버스 테이블 구분값 TNAH_CODE = 03 자체휴무일
+휴일 잔여일수 쿼리 수정해 주기로 함. ( 인버스 측에서 전달 받은 쿼리에 해당 구분값 예외처리가 안되 있었음 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 - 손혜원 주임
+1. 휴가 결재 완료 후 출근부에 결근으로 뜸.
+- 장지현, 대체휴가신청 승인완료 조회되나, [출근부] 내 결근 으로 조회됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수당신청관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 수당신청 금액이 0원으로 표시되는 오류
+- 인사관리 &gt; 수당관리 &gt; 수당신청관리
+- sangyoung.lee / 이상영
+- 2024.01.01 주재비, 교통비 금액 0원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계계약관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 157
+모종복합문화공간 등 결재 완료했는데 설계계약관리 들어가서 보면 작성중이라고 떠 있습니다.
+- 설계관리 &gt; 설계계약관리 &gt; 설계계약관리
+- CA2023-044 / 모종복합문화공간 조성사업 건축설계용역
++ 세션 유지 2시간으로 늘려주기로.
++ 목양에서 문서 다시 결재 올린다함. ( 데이터 처리 해줄 필요 없음 )
++ 도계중 프로젝트 문서 결재선 사람들이 문서관리에서 안보인다함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 출근부관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 내 출근부관리 무한 로딩 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2496,7 +3080,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2506,6 +3090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,7 +3145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2600,6 +3190,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3011,11 +3604,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I183"/>
+  <dimension ref="B1:I236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
+      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I232" activeCellId="1" sqref="D6 I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3669,9 @@
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3084,7 +3679,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>24</v>
@@ -4627,22 +5222,22 @@
         <v>184</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="I69" s="4"/>
     </row>
@@ -5112,7 +5707,7 @@
         <v>17</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -5127,7 +5722,7 @@
         <v>243</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="27" x14ac:dyDescent="0.3">
@@ -5220,7 +5815,7 @@
         <v>45</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>303</v>
@@ -5401,7 +5996,7 @@
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
@@ -5480,7 +6075,7 @@
         <v>272</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>8</v>
@@ -5615,10 +6210,10 @@
         <v>283</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>8</v>
@@ -5669,12 +6264,10 @@
         <v>9</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="H114" s="3"/>
-      <c r="I114" s="4" t="s">
-        <v>304</v>
-      </c>
+      <c r="I114" s="4"/>
     </row>
     <row r="115" spans="2:9" ht="162" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
@@ -5704,7 +6297,7 @@
         <v>76</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>8</v>
@@ -5881,10 +6474,10 @@
         <v>243</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>9</v>
@@ -5922,13 +6515,13 @@
     </row>
     <row r="126" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>8</v>
@@ -5944,13 +6537,13 @@
     </row>
     <row r="127" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>8</v>
@@ -5966,13 +6559,13 @@
     </row>
     <row r="128" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>8</v>
@@ -5988,13 +6581,13 @@
     </row>
     <row r="129" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>8</v>
@@ -6010,13 +6603,13 @@
     </row>
     <row r="130" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>8</v>
@@ -6032,13 +6625,13 @@
     </row>
     <row r="131" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>8</v>
@@ -6054,11 +6647,11 @@
     </row>
     <row r="132" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>9</v>
@@ -6080,7 +6673,7 @@
         <v>142</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>9</v>
@@ -6102,7 +6695,7 @@
         <v>141</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>8</v>
@@ -6121,10 +6714,10 @@
         <v>282</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>8</v>
@@ -6140,13 +6733,13 @@
     </row>
     <row r="136" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>8</v>
@@ -6162,13 +6755,13 @@
     </row>
     <row r="137" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>8</v>
@@ -6184,37 +6777,37 @@
     </row>
     <row r="138" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="I138" s="4"/>
     </row>
     <row r="139" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>9</v>
@@ -6226,19 +6819,19 @@
         <v>45</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I139" s="4"/>
     </row>
     <row r="140" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>8</v>
@@ -6254,13 +6847,13 @@
     </row>
     <row r="141" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>8</v>
@@ -6276,13 +6869,13 @@
     </row>
     <row r="142" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>9</v>
@@ -6294,19 +6887,21 @@
         <v>45</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I142" s="4"/>
+        <v>338</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="143" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>8</v>
@@ -6322,13 +6917,13 @@
     </row>
     <row r="144" spans="2:9" ht="256.5" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>8</v>
@@ -6344,13 +6939,13 @@
     </row>
     <row r="145" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>8</v>
@@ -6366,13 +6961,13 @@
     </row>
     <row r="146" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>9</v>
@@ -6381,20 +6976,20 @@
         <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>8</v>
@@ -6403,20 +6998,20 @@
         <v>9</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>8</v>
@@ -6432,13 +7027,13 @@
     </row>
     <row r="149" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>9</v>
@@ -6454,13 +7049,13 @@
     </row>
     <row r="150" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>9</v>
@@ -6476,13 +7071,13 @@
     </row>
     <row r="151" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>9</v>
@@ -6498,13 +7093,13 @@
     </row>
     <row r="152" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="D152" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>8</v>
@@ -6520,13 +7115,13 @@
     </row>
     <row r="153" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>9</v>
@@ -6539,18 +7134,18 @@
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>9</v>
@@ -6566,13 +7161,13 @@
     </row>
     <row r="155" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>8</v>
@@ -6584,19 +7179,19 @@
         <v>45</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I155" s="4"/>
     </row>
     <row r="156" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>9</v>
@@ -6612,13 +7207,13 @@
     </row>
     <row r="157" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>9</v>
@@ -6634,91 +7229,91 @@
     </row>
     <row r="158" spans="2:9" ht="108" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="D158" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="I158" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="159" spans="2:9" ht="121.5" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="D159" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="I159" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="D160" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="I160" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="161" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>9</v>
@@ -6734,14 +7329,14 @@
     </row>
     <row r="162" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="E162" s="3" t="s">
         <v>9</v>
       </c>
@@ -6752,19 +7347,19 @@
         <v>45</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I162" s="4"/>
     </row>
     <row r="163" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>9</v>
@@ -6780,133 +7375,135 @@
     </row>
     <row r="164" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="D164" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B165" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H165" s="3"/>
+      <c r="I165" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B166" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166" s="3"/>
+      <c r="I166" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="B165" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="6" t="s">
+    </row>
+    <row r="167" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B167" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H165" s="3"/>
-      <c r="I165" s="6" t="s">
+      <c r="C167" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B166" s="3" t="s">
+      <c r="E167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D166" s="6" t="s">
+    </row>
+    <row r="168" spans="2:9" ht="135" x14ac:dyDescent="0.3">
+      <c r="B168" s="3"/>
+      <c r="C168" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="4" t="s">
+      <c r="E168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H168" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" ht="135" x14ac:dyDescent="0.3">
-      <c r="B167" s="3"/>
-      <c r="C167" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B169" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B168" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="2:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="B169" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E169" s="3"/>
+      <c r="E169" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F169" s="3" t="s">
         <v>9</v>
       </c>
@@ -6914,19 +7511,19 @@
         <v>45</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>8</v>
@@ -6937,40 +7534,44 @@
       <c r="G170" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="I170" s="4"/>
     </row>
     <row r="171" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H171" s="3"/>
       <c r="I171" s="4"/>
     </row>
     <row r="172" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>8</v>
@@ -6984,15 +7585,15 @@
       <c r="H172" s="3"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>8</v>
@@ -7006,107 +7607,107 @@
       <c r="H173" s="3"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H174" s="3"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="E175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H175" s="3"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="C177" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="2:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="B175" s="3" t="s">
+      <c r="D177" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="E177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H177" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B176" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H176" s="3"/>
-      <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B177" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H177" s="3"/>
-      <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B178" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>8</v>
@@ -7120,15 +7721,15 @@
       <c r="H178" s="3"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>8</v>
@@ -7142,15 +7743,15 @@
       <c r="H179" s="3"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>8</v>
@@ -7164,15 +7765,15 @@
       <c r="H180" s="3"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>8</v>
@@ -7186,18 +7787,18 @@
       <c r="H181" s="3"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" ht="54" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>9</v>
@@ -7206,17 +7807,19 @@
         <v>45</v>
       </c>
       <c r="H182" s="3"/>
-      <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="I182" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="81" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>8</v>
@@ -7230,21 +7833,1221 @@
       <c r="H183" s="3"/>
       <c r="I183" s="4"/>
     </row>
+    <row r="184" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H184" s="3"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B185" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H185" s="3"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="3"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H186" s="3"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H187" s="3"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H188" s="3"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="3"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H189" s="3"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H190" s="3"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H191" s="3"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H192" s="3"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B193" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H193" s="3"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B194" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H194" s="3"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B195" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H195" s="3"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B196" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H196" s="3"/>
+      <c r="I196" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B197" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B198" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B199" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H199" s="3"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B200" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B201" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B202" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B203" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B204" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B205" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B206" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B207" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B208" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B209" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B210" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B211" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H211" s="3"/>
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B212" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B213" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H213" s="3"/>
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B214" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B215" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I215" s="4"/>
+    </row>
+    <row r="216" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B216" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B217" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H217" s="3"/>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B218" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B219" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H219" s="3"/>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B220" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H220" s="3"/>
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B221" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H221" s="3"/>
+      <c r="I221" s="4"/>
+    </row>
+    <row r="222" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B222" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H222" s="3"/>
+      <c r="I222" s="4"/>
+    </row>
+    <row r="223" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B223" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H223" s="3"/>
+      <c r="I223" s="4"/>
+    </row>
+    <row r="224" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B224" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H224" s="3"/>
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B225" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I225" s="4"/>
+    </row>
+    <row r="226" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B226" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H226" s="3"/>
+      <c r="I226" s="4"/>
+    </row>
+    <row r="227" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B227" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I227" s="4"/>
+    </row>
+    <row r="228" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B228" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B229" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B230" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H230" s="3"/>
+      <c r="I230" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="108" x14ac:dyDescent="0.3">
+      <c r="B231" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H231" s="3"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B232" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B233" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233" s="3"/>
+      <c r="I233" s="4"/>
+    </row>
+    <row r="234" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B234" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I234" s="4"/>
+    </row>
+    <row r="235" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B235" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I235" s="4"/>
+    </row>
+    <row r="236" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B236" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I236" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D183">
+  <conditionalFormatting sqref="D3:D236">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I3="완료"</formula>
+      <formula>$E3="완료"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7253,6 +9056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f90d0c5d-20a9-4884-94db-9bddc00c942c">
@@ -7261,15 +9073,6 @@
     <TaxCatchAll xmlns="a4541339-71e0-41a7-b73a-762ae2b9df2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7496,6 +9299,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A60E181-A5C4-4DF8-9BE6-E7C89A94002D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -7508,14 +9319,6 @@
     <ds:schemaRef ds:uri="f90d0c5d-20a9-4884-94db-9bddc00c942c"/>
     <ds:schemaRef ds:uri="a4541339-71e0-41a7-b73a-762ae2b9df2d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/public/excel/SmProject.xlsx
+++ b/public/excel/SmProject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3DF46-0837-4575-9D25-1C3448156346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB95ED7-A022-425D-8E49-8E3EEA862BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2DD46A-D58C-40B7-BE43-9D638ECD3896}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B2DD46A-D58C-40B7-BE43-9D638ECD3896}"/>
   </bookViews>
   <sheets>
     <sheet name="통합" sheetId="15" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="593">
   <si>
     <t>요청일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2996,6 +2996,257 @@
   </si>
   <si>
     <t>2024.01.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+기간별계획대비실행현황 검색 시 화면에서 계획 실행 금액이 미산출되는 부분이 많으며, 엑셀다운로드와 화면 표시 합계액 차이가 납니다.
+- 프로젝트 &gt; 프로젝트관리 &gt; 기간별계획대비실행현황
+1. 기간별계획대비실행현황
+- 계획금액, 실행금액 정상적으로 불려와 지는 것인지 확인 요청
+- 엑셀파일상 기간별매출 계획금액은 잡혀있지만 화면상으로는 미표기되고 있음
+- 2023.01.01~2023.12.31 (pj상태 전체) 검색하였을 때 총합계액 차이가 나고 있습니다
+2. 기간별프로젝트비용현황
+- 계약금액 외에 금액이 불러와지지 않습니다.
+** 위내용 모두 PJ상태 전체, 기간 2023.01.01~2023.12.31로 하였을때 나오는 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 컴퓨터 시간을 바꾸면 월간근무계획표 메뉴에서 수정이 가능함. 해서 서버단에서 해당 조건을 체크하는 로직이 들어가야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 선택근무 조정시 오류 발생
+- 최송아
+- 2024.01.25
+- epms.insa.workplan.getCalcWorkplanTime / ORA-00942: 테이블 또는 뷰가 존재하지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일
+1. 출근 데이터 삭제 요청
+- 조상원
+- 2024-01-05 출근 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선
+1. 정산내역 엑셀 다운로드
+- 프로젝트 &gt; 전도금/착수금 &gt; 신청/정산
+- 하단 정산내역 엑셀 다운로드 기능 추가</t>
+  </si>
+  <si>
+    <t>이메일
+1. 출퇴근 수동입력 기한 변경
+- 7일 -&gt; 10일
+- 날짜 입력칸 오른쪽에 문구 추가
+   ㄴ 상신/승인 기한 : 발생일 포함 10일 이내 ( 파란색으로 )
+- ex) 발생일 1월 17일 : 26일까지 상신 및 승인 됨
+- 출퇴근 수동입력 승인 페이지 조건도 확인해 봐야함</t>
+  </si>
+  <si>
+    <t>처리번호 44 / 팀즈 &gt; 지원팀 &gt; 공유파일 &gt; 부천현대화사업_오류사항_R0.pptx
+검토결과 표시가 안되고 있음
+검토결과는 하단 정보 탭에서 검토결과 값을 가져오며, 
+검토결과 결정 방식에 따라 값이 달라짐.
+1. 최종 결과값을 가져오는 경우
+- 최종 검토자의 검토결과 데이터를 가져옴
+2. 최저 결과값을 가져오는 경우 최저 값의 순서는 아래와 같음.
+- A (Approval)
+- O (Information)
+- AC (Approved with Comment)
+- NA (Not Approval)
+- R (Reject)</t>
+  </si>
+  <si>
+    <t>이메일
+1. 월간근무계획표 및 수동입력과 관련된 위임전결 이미지 교체</t>
+  </si>
+  <si>
+    <t>유선
+1. 사람 순서변경 기본값 0 으로 변경
+- 경영 &gt; 조직관리 &gt; 조직도(OBS)관리
+- 순선변경 값 NULL 인 인원에 대해서 기본값 0 으로 변경.</t>
+  </si>
+  <si>
+    <t>기술서비스 코드 - 1860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수동입력, 월간근무계획표, 휴가 위임전결 규정이 재 변경되어 다시 변경 요청 드립니다.
+- 1/16 경현씨가 작업한 내역 보고 하시면 되고 이메일 첨부파일에서 이미지 추출 하시면 됩니다.
+- 바로 반영 가능한 작업이니 바로 반영하시면 됩니다.</t>
+  </si>
+  <si>
+    <t>1. 연차가 취소된 일자의 Time작성 데이터 오류
+- 김나은
+- 2024.01.23 연차 취소 / Time작성 엔 휴가데이터 존재</t>
+  </si>
+  <si>
+    <t>1. 위임전결 이미지 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. WORK_RT 시간 이상 문제
+- 반차 있을때 점심시간 1시간이 포함되는것으로 보임.</t>
+  </si>
+  <si>
+    <t>1. 전자결재 전표 상신시 수신참조자를 선택하라는 메시지가 계속 뜨는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 휴가수동입력 시 근무상태 표시가 안맞거나 출근, 퇴근 시간이 안찍히는 문제
+- 윤서희 / 3월 28일
+- 옥지해 / 3월 25일
+2. 출근부 수동입력 팝업 수정 요청
+- 구분 2개로 변경</t>
+  </si>
+  <si>
+    <t>1. 퇴직원 신청 중 STEP 1 퇴직원 문서 결재 중에 "퇴직취소신청" 이 승인되면
+결재중인 퇴직원 문서의 결재상태를 반려로 바꿔달라. 
+2. 임시저장 했을 시 처리 확인 ( 임시 보관함에서 상신 했을 때 정상 처리 되는지 여부 확인 )
+- 위 임시보관함에서 상신했을 때 문제가 없다면 퇴직원 신청 메뉴에서 알림 팝업같이 뜰 수 있게 조치 필요
+- 임시저장된 문서가 있다면 이어서 쓸 수 있게 처리가 되던가 해야함.</t>
+  </si>
+  <si>
+    <t>4. 퇴직신청
+1) 임시저장 후 재작성 불가. (전자결재 임시보관문서에서 재 작성 가능한지 확인)
+2) 최종결재 상신 전까지는 작성중으로 표기하여 재작성이 가능하도록 버튼 추가.</t>
+  </si>
+  <si>
+    <t>기간별계획대비실행현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출퇴근 수동입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위임전결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직도(OBS)관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024.02.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.15</t>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+  </si>
+  <si>
+    <t>2024.01.25</t>
+  </si>
+  <si>
+    <t>2024.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.08</t>
+  </si>
+  <si>
+    <t>2024.04.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 반영 완료
+2. 부본부장님께서 담당자와 이야기해 보신다 함. (문제 없어 보여서)
+-&gt; 진행 한다하여 경현씨가 처리함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크 로직 서버단으로 옮기는 작업은 해주기로 했는데 시간이 걸린다 했음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발에 작업 완료 / 최형규 과장 테스트 후 운영 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 번은 작업 완료되어 이미 반영되었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 에초에 결재 진행중인 문서가 있으면 취소신청을 누를 수 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-0111 내용 과 같음 ( 중복 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3185,21 +3436,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{3549437A-EE41-4F04-A778-D0863A94FF59}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3305,9 +3563,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3345,7 +3603,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3451,7 +3709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3593,7 +3851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3604,11 +3862,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I236"/>
+  <dimension ref="B1:I254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I232" activeCellId="1" sqref="D6 I232"/>
+      <pane ySplit="2" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3624,40 +3882,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -8508,7 +8766,7 @@
       <c r="C214" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D214" s="15" t="s">
+      <c r="D214" s="13" t="s">
         <v>490</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -9032,6 +9290,444 @@
         <v>540</v>
       </c>
       <c r="I236" s="4"/>
+    </row>
+    <row r="237" spans="2:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B237" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B238" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B239" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239" s="3"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B240" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B241" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="B242" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:9" ht="202.5" x14ac:dyDescent="0.3">
+      <c r="B243" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B244" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B245" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B247" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B248" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B250" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B252" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="B253" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B254" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>592</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9046,8 +9742,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D236">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E3="완료"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D237:D254">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J237="완료"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B246">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E3="완료"</formula>
+      <formula>$J246="완료"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9056,15 +9762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f90d0c5d-20a9-4884-94db-9bddc00c942c">
@@ -9073,6 +9770,15 @@
     <TaxCatchAll xmlns="a4541339-71e0-41a7-b73a-762ae2b9df2d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9299,14 +10005,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A60E181-A5C4-4DF8-9BE6-E7C89A94002D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -9319,6 +10017,14 @@
     <ds:schemaRef ds:uri="f90d0c5d-20a9-4884-94db-9bddc00c942c"/>
     <ds:schemaRef ds:uri="a4541339-71e0-41a7-b73a-762ae2b9df2d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526BB9B7-DFFB-44E7-A6F3-CEB2C7EC7CC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
